--- a/4 Product Backlog/Product Backlog.xlsx
+++ b/4 Product Backlog/Product Backlog.xlsx
@@ -5,17 +5,16 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Quản trị dự án CNTT\product Backlog\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Save\Phenikaa University\PM\Capstone-Project-Scenario-Phenikaa\4 Product Backlog\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{140454E0-8771-4BD1-B978-ECA6C7B11181}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B63BC4E-3328-4137-8332-00C2F1F2B15D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Product Backlog Example" sheetId="3" r:id="rId1"/>
-    <sheet name="Story Points" sheetId="4" r:id="rId2"/>
-    <sheet name="Story Points Solution" sheetId="5" r:id="rId3"/>
+    <sheet name="Story Points" sheetId="5" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Product Backlog Example'!$A$2:$K$2</definedName>
@@ -42,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="130">
   <si>
     <t>Priority</t>
   </si>
@@ -694,6 +693,18 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -763,20 +774,8 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -802,1301 +801,6 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>165735</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>184785</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>17145</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="Rectangle 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5017AFA5-8B4D-9D35-E643-5FF21565713C}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3823335" y="3678555"/>
-          <a:ext cx="1238250" cy="567690"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent1">
-            <a:lumMod val="20000"/>
-            <a:lumOff val="80000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="15000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>User Story </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t> 4</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1400">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>542925</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>165735</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>561975</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>1905</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="Rectangle 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2C36F85F-1D88-4A5F-A0A7-29115E508E82}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2371725" y="3663315"/>
-          <a:ext cx="1238250" cy="567690"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent1">
-            <a:lumMod val="20000"/>
-            <a:lumOff val="80000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="15000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>User Story </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t> 1</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1400">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>179070</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>198120</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="Rectangle 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7853CB84-B83B-4337-8195-0C56435F42E3}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3836670" y="4450080"/>
-          <a:ext cx="1238250" cy="567690"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent1">
-            <a:lumMod val="20000"/>
-            <a:lumOff val="80000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="15000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>User Story </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t> 8</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1400">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>146685</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>87630</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>165735</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>106680</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="11" name="Rectangle 10">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0569B832-BC06-43B9-9CAB-DC2DEEAEC317}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3804285" y="5231130"/>
-          <a:ext cx="1238250" cy="567690"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent1">
-            <a:lumMod val="20000"/>
-            <a:lumOff val="80000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="15000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>User Story </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t> 13</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1400">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>196215</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>146685</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>215265</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>165735</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="13" name="Rectangle 12">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{47274C45-6D6C-40FF-98BF-645CF117F488}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="805815" y="3644265"/>
-          <a:ext cx="1238250" cy="567690"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent1">
-            <a:lumMod val="20000"/>
-            <a:lumOff val="80000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="15000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>User Story </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t> 3</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1400">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>539115</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>24765</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>558165</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>43815</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="Rectangle 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B0CF13C8-BF1F-4296-96FA-533A6C85F16E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2367915" y="4436745"/>
-          <a:ext cx="1238250" cy="567690"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent1">
-            <a:lumMod val="20000"/>
-            <a:lumOff val="80000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="15000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>User Story </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t> 5</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1400">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>188595</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>207645</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="Rectangle 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F09F3A14-7494-4D39-87AC-94DE8E157585}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="798195" y="4421505"/>
-          <a:ext cx="1238250" cy="567690"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent1">
-            <a:lumMod val="20000"/>
-            <a:lumOff val="80000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="15000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>User Story </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t> 10</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1400">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>158115</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>55245</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>177165</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>74295</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="Rectangle 6">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0EE11A72-676D-4C18-8192-2784B763A86B}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="767715" y="5198745"/>
-          <a:ext cx="1238250" cy="567690"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent1">
-            <a:lumMod val="20000"/>
-            <a:lumOff val="80000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="15000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>User Story </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t> 15</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1400">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>436245</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>179070</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>455295</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>15240</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="Rectangle 7">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{24D7BBB0-0E89-4BD9-8075-1DFA1E3B40CF}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5313045" y="3676650"/>
-          <a:ext cx="1238250" cy="567690"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent1">
-            <a:lumMod val="20000"/>
-            <a:lumOff val="80000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="15000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>User Story </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t> 2</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1400">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>108585</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>3810</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>127635</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>22860</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="9" name="Rectangle 8">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E1A58B65-5AAE-46DD-9C8A-0684F2C64F6B}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6814185" y="3684270"/>
-          <a:ext cx="1238250" cy="567690"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent1">
-            <a:lumMod val="20000"/>
-            <a:lumOff val="80000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="15000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>User Story </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t> 14</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1400">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>443865</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>102870</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>462915</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>121920</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="10" name="Rectangle 9">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{38078F93-CFE6-4789-8EF9-814D77C864A8}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5320665" y="5246370"/>
-          <a:ext cx="1238250" cy="567690"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent1">
-            <a:lumMod val="20000"/>
-            <a:lumOff val="80000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="15000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>User Story </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t> 7</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1400">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>451485</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>72390</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>470535</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>91440</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="12" name="Rectangle 11">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4C8F9F3B-984F-4863-AB71-36BBDEB8E99E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5328285" y="4484370"/>
-          <a:ext cx="1238250" cy="567690"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent1">
-            <a:lumMod val="20000"/>
-            <a:lumOff val="80000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="15000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>User Story </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t> 6</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1400">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>436245</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>179070</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>455295</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>15240</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="14" name="Rectangle 13">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{900CFB9F-7850-4278-BE94-0E7D7AFA4E34}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5313045" y="6054090"/>
-          <a:ext cx="1238250" cy="567690"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent1">
-            <a:lumMod val="20000"/>
-            <a:lumOff val="80000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="15000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>User Story </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t> 9</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1400">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>436245</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>163830</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>455295</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="15" name="Rectangle 14">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{57496C45-77B6-45BD-8FBD-4604AD9B8131}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5313045" y="6770370"/>
-          <a:ext cx="1238250" cy="567690"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent1">
-            <a:lumMod val="20000"/>
-            <a:lumOff val="80000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="15000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>User Story </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t> 11</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1400">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>428625</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>447675</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>701040</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="16" name="Rectangle 15">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EC9501A9-1DB8-4930-8CBA-91692F407F84}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5305425" y="7471410"/>
-          <a:ext cx="1238250" cy="567690"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent1">
-            <a:lumMod val="20000"/>
-            <a:lumOff val="80000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="15000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>User Story </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t> 12</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1400">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -3659,7 +2363,7 @@
   </sheetPr>
   <dimension ref="A1:K22"/>
   <sheetViews>
-    <sheetView topLeftCell="F11" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
       <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
@@ -3680,19 +2384,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
-      <c r="K1" s="11"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="15"/>
     </row>
     <row r="2" spans="1:11" ht="59.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
@@ -3742,7 +2446,7 @@
       <c r="D3" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E3" s="33" t="s">
+      <c r="E3" s="9" t="s">
         <v>24</v>
       </c>
       <c r="F3" s="7" t="s">
@@ -3778,7 +2482,7 @@
       <c r="D4" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E4" s="33" t="s">
+      <c r="E4" s="9" t="s">
         <v>24</v>
       </c>
       <c r="F4" s="7" t="s">
@@ -3814,10 +2518,10 @@
       <c r="D5" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E5" s="33" t="s">
+      <c r="E5" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="F5" s="34" t="s">
+      <c r="F5" s="10" t="s">
         <v>52</v>
       </c>
       <c r="G5" s="7" t="s">
@@ -3850,7 +2554,7 @@
       <c r="D6" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E6" s="33" t="s">
+      <c r="E6" s="9" t="s">
         <v>24</v>
       </c>
       <c r="F6" s="7" t="s">
@@ -3886,7 +2590,7 @@
       <c r="D7" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="E7" s="33" t="s">
+      <c r="E7" s="9" t="s">
         <v>24</v>
       </c>
       <c r="F7" s="7" t="s">
@@ -3922,7 +2626,7 @@
       <c r="D8" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E8" s="33" t="s">
+      <c r="E8" s="9" t="s">
         <v>24</v>
       </c>
       <c r="F8" s="7" t="s">
@@ -3958,7 +2662,7 @@
       <c r="D9" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="E9" s="33" t="s">
+      <c r="E9" s="9" t="s">
         <v>24</v>
       </c>
       <c r="F9" s="7" t="s">
@@ -3994,10 +2698,10 @@
       <c r="D10" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="E10" s="33" t="s">
+      <c r="E10" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="F10" s="34" t="s">
+      <c r="F10" s="10" t="s">
         <v>57</v>
       </c>
       <c r="G10" s="7" t="s">
@@ -4030,7 +2734,7 @@
       <c r="D11" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E11" s="33" t="s">
+      <c r="E11" s="9" t="s">
         <v>24</v>
       </c>
       <c r="F11" s="7" t="s">
@@ -4069,10 +2773,10 @@
       <c r="E12" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="F12" s="35" t="s">
+      <c r="F12" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="G12" s="35" t="s">
+      <c r="G12" s="11" t="s">
         <v>43</v>
       </c>
       <c r="H12" s="7" t="s">
@@ -4111,7 +2815,7 @@
       <c r="G13" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="H13" s="36" t="s">
+      <c r="H13" s="12" t="s">
         <v>108</v>
       </c>
       <c r="I13" s="7" t="s">
@@ -4147,7 +2851,7 @@
       <c r="G14" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="H14" s="36" t="s">
+      <c r="H14" s="12" t="s">
         <v>109</v>
       </c>
       <c r="I14" s="7" t="s">
@@ -4183,7 +2887,7 @@
       <c r="G15" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="H15" s="36" t="s">
+      <c r="H15" s="12" t="s">
         <v>110</v>
       </c>
       <c r="I15" s="7" t="s">
@@ -4219,7 +2923,7 @@
       <c r="G16" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="H16" s="36" t="s">
+      <c r="H16" s="12" t="s">
         <v>111</v>
       </c>
       <c r="I16" s="7" t="s">
@@ -4255,7 +2959,7 @@
       <c r="G17" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="H17" s="36" t="s">
+      <c r="H17" s="12" t="s">
         <v>112</v>
       </c>
       <c r="I17" s="7" t="s">
@@ -4299,747 +3003,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9975686F-1D50-41D8-97C6-5D5028ED65FA}">
-  <dimension ref="A1:O41"/>
-  <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="T7" sqref="T7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="30" t="s">
-        <v>14</v>
-      </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30" t="s">
-        <v>15</v>
-      </c>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30" t="s">
-        <v>16</v>
-      </c>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30"/>
-      <c r="J1" s="30" t="s">
-        <v>96</v>
-      </c>
-      <c r="K1" s="30"/>
-      <c r="L1" s="30"/>
-      <c r="M1" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="N1" s="30"/>
-      <c r="O1" s="30"/>
-    </row>
-    <row r="2" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="30"/>
-      <c r="B2" s="30"/>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="30"/>
-      <c r="I2" s="30"/>
-      <c r="J2" s="30"/>
-      <c r="K2" s="30"/>
-      <c r="L2" s="30"/>
-      <c r="M2" s="30"/>
-      <c r="N2" s="30"/>
-      <c r="O2" s="30"/>
-    </row>
-    <row r="3" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="30"/>
-      <c r="B3" s="30"/>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="30"/>
-      <c r="H3" s="30"/>
-      <c r="I3" s="30"/>
-      <c r="J3" s="30"/>
-      <c r="K3" s="30"/>
-      <c r="L3" s="30"/>
-      <c r="M3" s="30"/>
-      <c r="N3" s="30"/>
-      <c r="O3" s="30"/>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A4" s="21"/>
-      <c r="B4" s="22"/>
-      <c r="C4" s="23"/>
-      <c r="D4" s="31"/>
-      <c r="E4" s="31"/>
-      <c r="F4" s="31"/>
-      <c r="G4" s="31"/>
-      <c r="H4" s="31"/>
-      <c r="I4" s="31"/>
-      <c r="J4" s="31"/>
-      <c r="K4" s="31"/>
-      <c r="L4" s="31"/>
-      <c r="M4" s="31"/>
-      <c r="N4" s="31"/>
-      <c r="O4" s="31"/>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A5" s="24"/>
-      <c r="B5" s="25"/>
-      <c r="C5" s="26"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="31"/>
-      <c r="G5" s="31"/>
-      <c r="H5" s="31"/>
-      <c r="I5" s="31"/>
-      <c r="J5" s="31"/>
-      <c r="K5" s="31"/>
-      <c r="L5" s="31"/>
-      <c r="M5" s="31"/>
-      <c r="N5" s="31"/>
-      <c r="O5" s="31"/>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A6" s="24"/>
-      <c r="B6" s="25"/>
-      <c r="C6" s="26"/>
-      <c r="D6" s="31"/>
-      <c r="E6" s="31"/>
-      <c r="F6" s="31"/>
-      <c r="G6" s="31"/>
-      <c r="H6" s="31"/>
-      <c r="I6" s="31"/>
-      <c r="J6" s="31"/>
-      <c r="K6" s="31"/>
-      <c r="L6" s="31"/>
-      <c r="M6" s="31"/>
-      <c r="N6" s="31"/>
-      <c r="O6" s="31"/>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A7" s="24"/>
-      <c r="B7" s="25"/>
-      <c r="C7" s="26"/>
-      <c r="D7" s="31"/>
-      <c r="E7" s="31"/>
-      <c r="F7" s="31"/>
-      <c r="G7" s="31"/>
-      <c r="H7" s="31"/>
-      <c r="I7" s="31"/>
-      <c r="J7" s="31"/>
-      <c r="K7" s="31"/>
-      <c r="L7" s="31"/>
-      <c r="M7" s="31"/>
-      <c r="N7" s="31"/>
-      <c r="O7" s="31"/>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A8" s="24"/>
-      <c r="B8" s="25"/>
-      <c r="C8" s="26"/>
-      <c r="D8" s="31"/>
-      <c r="E8" s="31"/>
-      <c r="F8" s="31"/>
-      <c r="G8" s="31"/>
-      <c r="H8" s="31"/>
-      <c r="I8" s="31"/>
-      <c r="J8" s="31"/>
-      <c r="K8" s="31"/>
-      <c r="L8" s="31"/>
-      <c r="M8" s="31"/>
-      <c r="N8" s="31"/>
-      <c r="O8" s="31"/>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A9" s="24"/>
-      <c r="B9" s="25"/>
-      <c r="C9" s="26"/>
-      <c r="D9" s="31"/>
-      <c r="E9" s="31"/>
-      <c r="F9" s="31"/>
-      <c r="G9" s="31"/>
-      <c r="H9" s="31"/>
-      <c r="I9" s="31"/>
-      <c r="J9" s="31"/>
-      <c r="K9" s="31"/>
-      <c r="L9" s="31"/>
-      <c r="M9" s="31"/>
-      <c r="N9" s="31"/>
-      <c r="O9" s="31"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A10" s="24"/>
-      <c r="B10" s="25"/>
-      <c r="C10" s="26"/>
-      <c r="D10" s="31"/>
-      <c r="E10" s="31"/>
-      <c r="F10" s="31"/>
-      <c r="G10" s="31"/>
-      <c r="H10" s="31"/>
-      <c r="I10" s="31"/>
-      <c r="J10" s="31"/>
-      <c r="K10" s="31"/>
-      <c r="L10" s="31"/>
-      <c r="M10" s="31"/>
-      <c r="N10" s="31"/>
-      <c r="O10" s="31"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A11" s="24"/>
-      <c r="B11" s="25"/>
-      <c r="C11" s="26"/>
-      <c r="D11" s="31"/>
-      <c r="E11" s="31"/>
-      <c r="F11" s="31"/>
-      <c r="G11" s="31"/>
-      <c r="H11" s="31"/>
-      <c r="I11" s="31"/>
-      <c r="J11" s="31"/>
-      <c r="K11" s="31"/>
-      <c r="L11" s="31"/>
-      <c r="M11" s="31"/>
-      <c r="N11" s="31"/>
-      <c r="O11" s="31"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A12" s="24"/>
-      <c r="B12" s="25"/>
-      <c r="C12" s="26"/>
-      <c r="D12" s="31"/>
-      <c r="E12" s="31"/>
-      <c r="F12" s="31"/>
-      <c r="G12" s="31"/>
-      <c r="H12" s="31"/>
-      <c r="I12" s="31"/>
-      <c r="J12" s="31"/>
-      <c r="K12" s="31"/>
-      <c r="L12" s="31"/>
-      <c r="M12" s="31"/>
-      <c r="N12" s="31"/>
-      <c r="O12" s="31"/>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A13" s="24"/>
-      <c r="B13" s="25"/>
-      <c r="C13" s="26"/>
-      <c r="D13" s="31"/>
-      <c r="E13" s="31"/>
-      <c r="F13" s="31"/>
-      <c r="G13" s="31"/>
-      <c r="H13" s="31"/>
-      <c r="I13" s="31"/>
-      <c r="J13" s="31"/>
-      <c r="K13" s="31"/>
-      <c r="L13" s="31"/>
-      <c r="M13" s="31"/>
-      <c r="N13" s="31"/>
-      <c r="O13" s="31"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A14" s="24"/>
-      <c r="B14" s="25"/>
-      <c r="C14" s="26"/>
-      <c r="D14" s="31"/>
-      <c r="E14" s="31"/>
-      <c r="F14" s="31"/>
-      <c r="G14" s="31"/>
-      <c r="H14" s="31"/>
-      <c r="I14" s="31"/>
-      <c r="J14" s="31"/>
-      <c r="K14" s="31"/>
-      <c r="L14" s="31"/>
-      <c r="M14" s="31"/>
-      <c r="N14" s="31"/>
-      <c r="O14" s="31"/>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A15" s="24"/>
-      <c r="B15" s="25"/>
-      <c r="C15" s="26"/>
-      <c r="D15" s="31"/>
-      <c r="E15" s="31"/>
-      <c r="F15" s="31"/>
-      <c r="G15" s="31"/>
-      <c r="H15" s="31"/>
-      <c r="I15" s="31"/>
-      <c r="J15" s="31"/>
-      <c r="K15" s="31"/>
-      <c r="L15" s="31"/>
-      <c r="M15" s="31"/>
-      <c r="N15" s="31"/>
-      <c r="O15" s="31"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A16" s="24"/>
-      <c r="B16" s="25"/>
-      <c r="C16" s="26"/>
-      <c r="D16" s="31"/>
-      <c r="E16" s="31"/>
-      <c r="F16" s="31"/>
-      <c r="G16" s="31"/>
-      <c r="H16" s="31"/>
-      <c r="I16" s="31"/>
-      <c r="J16" s="31"/>
-      <c r="K16" s="31"/>
-      <c r="L16" s="31"/>
-      <c r="M16" s="31"/>
-      <c r="N16" s="31"/>
-      <c r="O16" s="31"/>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A17" s="24"/>
-      <c r="B17" s="25"/>
-      <c r="C17" s="26"/>
-      <c r="D17" s="31"/>
-      <c r="E17" s="31"/>
-      <c r="F17" s="31"/>
-      <c r="G17" s="31"/>
-      <c r="H17" s="31"/>
-      <c r="I17" s="31"/>
-      <c r="J17" s="31"/>
-      <c r="K17" s="31"/>
-      <c r="L17" s="31"/>
-      <c r="M17" s="31"/>
-      <c r="N17" s="31"/>
-      <c r="O17" s="31"/>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A18" s="27"/>
-      <c r="B18" s="28"/>
-      <c r="C18" s="29"/>
-      <c r="D18" s="31"/>
-      <c r="E18" s="31"/>
-      <c r="F18" s="31"/>
-      <c r="G18" s="31"/>
-      <c r="H18" s="31"/>
-      <c r="I18" s="31"/>
-      <c r="J18" s="31"/>
-      <c r="K18" s="31"/>
-      <c r="L18" s="31"/>
-      <c r="M18" s="31"/>
-      <c r="N18" s="31"/>
-      <c r="O18" s="31"/>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A19" s="12"/>
-      <c r="B19" s="13"/>
-      <c r="C19" s="13"/>
-      <c r="D19" s="13"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="13"/>
-      <c r="G19" s="13"/>
-      <c r="H19" s="13"/>
-      <c r="I19" s="13"/>
-      <c r="J19" s="13"/>
-      <c r="K19" s="13"/>
-      <c r="L19" s="13"/>
-      <c r="M19" s="13"/>
-      <c r="N19" s="13"/>
-      <c r="O19" s="14"/>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A20" s="15"/>
-      <c r="B20" s="16"/>
-      <c r="C20" s="16"/>
-      <c r="D20" s="16"/>
-      <c r="E20" s="16"/>
-      <c r="F20" s="16"/>
-      <c r="G20" s="16"/>
-      <c r="H20" s="16"/>
-      <c r="I20" s="16"/>
-      <c r="J20" s="16"/>
-      <c r="K20" s="16"/>
-      <c r="L20" s="16"/>
-      <c r="M20" s="16"/>
-      <c r="N20" s="16"/>
-      <c r="O20" s="17"/>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A21" s="15"/>
-      <c r="B21" s="16"/>
-      <c r="C21" s="16"/>
-      <c r="D21" s="16"/>
-      <c r="E21" s="16"/>
-      <c r="F21" s="16"/>
-      <c r="G21" s="16"/>
-      <c r="H21" s="16"/>
-      <c r="I21" s="16"/>
-      <c r="J21" s="16"/>
-      <c r="K21" s="16"/>
-      <c r="L21" s="16"/>
-      <c r="M21" s="16"/>
-      <c r="N21" s="16"/>
-      <c r="O21" s="17"/>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A22" s="15"/>
-      <c r="B22" s="16"/>
-      <c r="C22" s="16"/>
-      <c r="D22" s="16"/>
-      <c r="E22" s="16"/>
-      <c r="F22" s="16"/>
-      <c r="G22" s="16"/>
-      <c r="H22" s="16"/>
-      <c r="I22" s="16"/>
-      <c r="J22" s="16"/>
-      <c r="K22" s="16"/>
-      <c r="L22" s="16"/>
-      <c r="M22" s="16"/>
-      <c r="N22" s="16"/>
-      <c r="O22" s="17"/>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A23" s="15"/>
-      <c r="B23" s="16"/>
-      <c r="C23" s="16"/>
-      <c r="D23" s="16"/>
-      <c r="E23" s="16"/>
-      <c r="F23" s="16"/>
-      <c r="G23" s="16"/>
-      <c r="H23" s="16"/>
-      <c r="I23" s="16"/>
-      <c r="J23" s="16"/>
-      <c r="K23" s="16"/>
-      <c r="L23" s="16"/>
-      <c r="M23" s="16"/>
-      <c r="N23" s="16"/>
-      <c r="O23" s="17"/>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A24" s="15"/>
-      <c r="B24" s="16"/>
-      <c r="C24" s="16"/>
-      <c r="D24" s="16"/>
-      <c r="E24" s="16"/>
-      <c r="F24" s="16"/>
-      <c r="G24" s="16"/>
-      <c r="H24" s="16"/>
-      <c r="I24" s="16"/>
-      <c r="J24" s="16"/>
-      <c r="K24" s="16"/>
-      <c r="L24" s="16"/>
-      <c r="M24" s="16"/>
-      <c r="N24" s="16"/>
-      <c r="O24" s="17"/>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A25" s="15"/>
-      <c r="B25" s="16"/>
-      <c r="C25" s="16"/>
-      <c r="D25" s="16"/>
-      <c r="E25" s="16"/>
-      <c r="F25" s="16"/>
-      <c r="G25" s="16"/>
-      <c r="H25" s="16"/>
-      <c r="I25" s="16"/>
-      <c r="J25" s="16"/>
-      <c r="K25" s="16"/>
-      <c r="L25" s="16"/>
-      <c r="M25" s="16"/>
-      <c r="N25" s="16"/>
-      <c r="O25" s="17"/>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A26" s="15"/>
-      <c r="B26" s="16"/>
-      <c r="C26" s="16"/>
-      <c r="D26" s="16"/>
-      <c r="E26" s="16"/>
-      <c r="F26" s="16"/>
-      <c r="G26" s="16"/>
-      <c r="H26" s="16"/>
-      <c r="I26" s="16"/>
-      <c r="J26" s="16"/>
-      <c r="K26" s="16"/>
-      <c r="L26" s="16"/>
-      <c r="M26" s="16"/>
-      <c r="N26" s="16"/>
-      <c r="O26" s="17"/>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A27" s="15"/>
-      <c r="B27" s="16"/>
-      <c r="C27" s="16"/>
-      <c r="D27" s="16"/>
-      <c r="E27" s="16"/>
-      <c r="F27" s="16"/>
-      <c r="G27" s="16"/>
-      <c r="H27" s="16"/>
-      <c r="I27" s="16"/>
-      <c r="J27" s="16"/>
-      <c r="K27" s="16"/>
-      <c r="L27" s="16"/>
-      <c r="M27" s="16"/>
-      <c r="N27" s="16"/>
-      <c r="O27" s="17"/>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A28" s="15"/>
-      <c r="B28" s="16"/>
-      <c r="C28" s="16"/>
-      <c r="D28" s="16"/>
-      <c r="E28" s="16"/>
-      <c r="F28" s="16"/>
-      <c r="G28" s="16"/>
-      <c r="H28" s="16"/>
-      <c r="I28" s="16"/>
-      <c r="J28" s="16"/>
-      <c r="K28" s="16"/>
-      <c r="L28" s="16"/>
-      <c r="M28" s="16"/>
-      <c r="N28" s="16"/>
-      <c r="O28" s="17"/>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A29" s="15"/>
-      <c r="B29" s="16"/>
-      <c r="C29" s="16"/>
-      <c r="D29" s="16"/>
-      <c r="E29" s="16"/>
-      <c r="F29" s="16"/>
-      <c r="G29" s="16"/>
-      <c r="H29" s="16"/>
-      <c r="I29" s="16"/>
-      <c r="J29" s="16"/>
-      <c r="K29" s="16"/>
-      <c r="L29" s="16"/>
-      <c r="M29" s="16"/>
-      <c r="N29" s="16"/>
-      <c r="O29" s="17"/>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A30" s="15"/>
-      <c r="B30" s="16"/>
-      <c r="C30" s="16"/>
-      <c r="D30" s="16"/>
-      <c r="E30" s="16"/>
-      <c r="F30" s="16"/>
-      <c r="G30" s="16"/>
-      <c r="H30" s="16"/>
-      <c r="I30" s="16"/>
-      <c r="J30" s="16"/>
-      <c r="K30" s="16"/>
-      <c r="L30" s="16"/>
-      <c r="M30" s="16"/>
-      <c r="N30" s="16"/>
-      <c r="O30" s="17"/>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A31" s="15"/>
-      <c r="B31" s="16"/>
-      <c r="C31" s="16"/>
-      <c r="D31" s="16"/>
-      <c r="E31" s="16"/>
-      <c r="F31" s="16"/>
-      <c r="G31" s="16"/>
-      <c r="H31" s="16"/>
-      <c r="I31" s="16"/>
-      <c r="J31" s="16"/>
-      <c r="K31" s="16"/>
-      <c r="L31" s="16"/>
-      <c r="M31" s="16"/>
-      <c r="N31" s="16"/>
-      <c r="O31" s="17"/>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A32" s="15"/>
-      <c r="B32" s="16"/>
-      <c r="C32" s="16"/>
-      <c r="D32" s="16"/>
-      <c r="E32" s="16"/>
-      <c r="F32" s="16"/>
-      <c r="G32" s="16"/>
-      <c r="H32" s="16"/>
-      <c r="I32" s="16"/>
-      <c r="J32" s="16"/>
-      <c r="K32" s="16"/>
-      <c r="L32" s="16"/>
-      <c r="M32" s="16"/>
-      <c r="N32" s="16"/>
-      <c r="O32" s="17"/>
-    </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A33" s="15"/>
-      <c r="B33" s="16"/>
-      <c r="C33" s="16"/>
-      <c r="D33" s="16"/>
-      <c r="E33" s="16"/>
-      <c r="F33" s="16"/>
-      <c r="G33" s="16"/>
-      <c r="H33" s="16"/>
-      <c r="I33" s="16"/>
-      <c r="J33" s="16"/>
-      <c r="K33" s="16"/>
-      <c r="L33" s="16"/>
-      <c r="M33" s="16"/>
-      <c r="N33" s="16"/>
-      <c r="O33" s="17"/>
-    </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A34" s="15"/>
-      <c r="B34" s="16"/>
-      <c r="C34" s="16"/>
-      <c r="D34" s="16"/>
-      <c r="E34" s="16"/>
-      <c r="F34" s="16"/>
-      <c r="G34" s="16"/>
-      <c r="H34" s="16"/>
-      <c r="I34" s="16"/>
-      <c r="J34" s="16"/>
-      <c r="K34" s="16"/>
-      <c r="L34" s="16"/>
-      <c r="M34" s="16"/>
-      <c r="N34" s="16"/>
-      <c r="O34" s="17"/>
-    </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A35" s="15"/>
-      <c r="B35" s="16"/>
-      <c r="C35" s="16"/>
-      <c r="D35" s="16"/>
-      <c r="E35" s="16"/>
-      <c r="F35" s="16"/>
-      <c r="G35" s="16"/>
-      <c r="H35" s="16"/>
-      <c r="I35" s="16"/>
-      <c r="J35" s="16"/>
-      <c r="K35" s="16"/>
-      <c r="L35" s="16"/>
-      <c r="M35" s="16"/>
-      <c r="N35" s="16"/>
-      <c r="O35" s="17"/>
-    </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A36" s="15"/>
-      <c r="B36" s="16"/>
-      <c r="C36" s="16"/>
-      <c r="D36" s="16"/>
-      <c r="E36" s="16"/>
-      <c r="F36" s="16"/>
-      <c r="G36" s="16"/>
-      <c r="H36" s="16"/>
-      <c r="I36" s="16"/>
-      <c r="J36" s="16"/>
-      <c r="K36" s="16"/>
-      <c r="L36" s="16"/>
-      <c r="M36" s="16"/>
-      <c r="N36" s="16"/>
-      <c r="O36" s="17"/>
-    </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A37" s="15"/>
-      <c r="B37" s="16"/>
-      <c r="C37" s="16"/>
-      <c r="D37" s="16"/>
-      <c r="E37" s="16"/>
-      <c r="F37" s="16"/>
-      <c r="G37" s="16"/>
-      <c r="H37" s="16"/>
-      <c r="I37" s="16"/>
-      <c r="J37" s="16"/>
-      <c r="K37" s="16"/>
-      <c r="L37" s="16"/>
-      <c r="M37" s="16"/>
-      <c r="N37" s="16"/>
-      <c r="O37" s="17"/>
-    </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A38" s="15"/>
-      <c r="B38" s="16"/>
-      <c r="C38" s="16"/>
-      <c r="D38" s="16"/>
-      <c r="E38" s="16"/>
-      <c r="F38" s="16"/>
-      <c r="G38" s="16"/>
-      <c r="H38" s="16"/>
-      <c r="I38" s="16"/>
-      <c r="J38" s="16"/>
-      <c r="K38" s="16"/>
-      <c r="L38" s="16"/>
-      <c r="M38" s="16"/>
-      <c r="N38" s="16"/>
-      <c r="O38" s="17"/>
-    </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A39" s="15"/>
-      <c r="B39" s="16"/>
-      <c r="C39" s="16"/>
-      <c r="D39" s="16"/>
-      <c r="E39" s="16"/>
-      <c r="F39" s="16"/>
-      <c r="G39" s="16"/>
-      <c r="H39" s="16"/>
-      <c r="I39" s="16"/>
-      <c r="J39" s="16"/>
-      <c r="K39" s="16"/>
-      <c r="L39" s="16"/>
-      <c r="M39" s="16"/>
-      <c r="N39" s="16"/>
-      <c r="O39" s="17"/>
-    </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A40" s="15"/>
-      <c r="B40" s="16"/>
-      <c r="C40" s="16"/>
-      <c r="D40" s="16"/>
-      <c r="E40" s="16"/>
-      <c r="F40" s="16"/>
-      <c r="G40" s="16"/>
-      <c r="H40" s="16"/>
-      <c r="I40" s="16"/>
-      <c r="J40" s="16"/>
-      <c r="K40" s="16"/>
-      <c r="L40" s="16"/>
-      <c r="M40" s="16"/>
-      <c r="N40" s="16"/>
-      <c r="O40" s="17"/>
-    </row>
-    <row r="41" spans="1:15" ht="76.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="18"/>
-      <c r="B41" s="19"/>
-      <c r="C41" s="19"/>
-      <c r="D41" s="19"/>
-      <c r="E41" s="19"/>
-      <c r="F41" s="19"/>
-      <c r="G41" s="19"/>
-      <c r="H41" s="19"/>
-      <c r="I41" s="19"/>
-      <c r="J41" s="19"/>
-      <c r="K41" s="19"/>
-      <c r="L41" s="19"/>
-      <c r="M41" s="19"/>
-      <c r="N41" s="19"/>
-      <c r="O41" s="20"/>
-    </row>
-  </sheetData>
-  <mergeCells count="11">
-    <mergeCell ref="A19:O41"/>
-    <mergeCell ref="A4:C18"/>
-    <mergeCell ref="M1:O3"/>
-    <mergeCell ref="D4:F18"/>
-    <mergeCell ref="G4:I18"/>
-    <mergeCell ref="J4:L18"/>
-    <mergeCell ref="M4:O18"/>
-    <mergeCell ref="A1:C3"/>
-    <mergeCell ref="D1:F3"/>
-    <mergeCell ref="G1:I3"/>
-    <mergeCell ref="J1:L3"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{776A74D6-97A8-44A1-BF47-8E6327D08EAE}">
   <dimension ref="A1:V41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="S24" sqref="S24"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19:O41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5048,760 +3016,761 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30" t="s">
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30" t="s">
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30"/>
-      <c r="J1" s="30" t="s">
+      <c r="H1" s="34"/>
+      <c r="I1" s="34"/>
+      <c r="J1" s="34" t="s">
         <v>96</v>
       </c>
-      <c r="K1" s="30"/>
-      <c r="L1" s="30"/>
-      <c r="M1" s="30" t="s">
+      <c r="K1" s="34"/>
+      <c r="L1" s="34"/>
+      <c r="M1" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="N1" s="30"/>
-      <c r="O1" s="30"/>
+      <c r="N1" s="34"/>
+      <c r="O1" s="34"/>
     </row>
     <row r="2" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="30"/>
-      <c r="B2" s="30"/>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="30"/>
-      <c r="I2" s="30"/>
-      <c r="J2" s="30"/>
-      <c r="K2" s="30"/>
-      <c r="L2" s="30"/>
-      <c r="M2" s="30"/>
-      <c r="N2" s="30"/>
-      <c r="O2" s="30"/>
+      <c r="A2" s="34"/>
+      <c r="B2" s="34"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="34"/>
+      <c r="I2" s="34"/>
+      <c r="J2" s="34"/>
+      <c r="K2" s="34"/>
+      <c r="L2" s="34"/>
+      <c r="M2" s="34"/>
+      <c r="N2" s="34"/>
+      <c r="O2" s="34"/>
     </row>
     <row r="3" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="30"/>
-      <c r="B3" s="30"/>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="30"/>
-      <c r="H3" s="30"/>
-      <c r="I3" s="30"/>
-      <c r="J3" s="30"/>
-      <c r="K3" s="30"/>
-      <c r="L3" s="30"/>
-      <c r="M3" s="30"/>
-      <c r="N3" s="30"/>
-      <c r="O3" s="30"/>
+      <c r="A3" s="34"/>
+      <c r="B3" s="34"/>
+      <c r="C3" s="34"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="34"/>
+      <c r="F3" s="34"/>
+      <c r="G3" s="34"/>
+      <c r="H3" s="34"/>
+      <c r="I3" s="34"/>
+      <c r="J3" s="34"/>
+      <c r="K3" s="34"/>
+      <c r="L3" s="34"/>
+      <c r="M3" s="34"/>
+      <c r="N3" s="34"/>
+      <c r="O3" s="34"/>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A4" s="21"/>
-      <c r="B4" s="22"/>
-      <c r="C4" s="23"/>
-      <c r="D4" s="31"/>
-      <c r="E4" s="31"/>
-      <c r="F4" s="31"/>
-      <c r="G4" s="31"/>
-      <c r="H4" s="31"/>
-      <c r="I4" s="31"/>
-      <c r="J4" s="31"/>
-      <c r="K4" s="31"/>
-      <c r="L4" s="31"/>
-      <c r="M4" s="31"/>
-      <c r="N4" s="31"/>
-      <c r="O4" s="31"/>
+      <c r="A4" s="25"/>
+      <c r="B4" s="26"/>
+      <c r="C4" s="27"/>
+      <c r="D4" s="35"/>
+      <c r="E4" s="35"/>
+      <c r="F4" s="35"/>
+      <c r="G4" s="35"/>
+      <c r="H4" s="35"/>
+      <c r="I4" s="35"/>
+      <c r="J4" s="35"/>
+      <c r="K4" s="35"/>
+      <c r="L4" s="35"/>
+      <c r="M4" s="35"/>
+      <c r="N4" s="35"/>
+      <c r="O4" s="35"/>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A5" s="24"/>
-      <c r="B5" s="25"/>
-      <c r="C5" s="26"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="31"/>
-      <c r="G5" s="31"/>
-      <c r="H5" s="31"/>
-      <c r="I5" s="31"/>
-      <c r="J5" s="31"/>
-      <c r="K5" s="31"/>
-      <c r="L5" s="31"/>
-      <c r="M5" s="31"/>
-      <c r="N5" s="31"/>
-      <c r="O5" s="31"/>
+      <c r="A5" s="28"/>
+      <c r="B5" s="29"/>
+      <c r="C5" s="30"/>
+      <c r="D5" s="35"/>
+      <c r="E5" s="35"/>
+      <c r="F5" s="35"/>
+      <c r="G5" s="35"/>
+      <c r="H5" s="35"/>
+      <c r="I5" s="35"/>
+      <c r="J5" s="35"/>
+      <c r="K5" s="35"/>
+      <c r="L5" s="35"/>
+      <c r="M5" s="35"/>
+      <c r="N5" s="35"/>
+      <c r="O5" s="35"/>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A6" s="24"/>
-      <c r="B6" s="25"/>
-      <c r="C6" s="26"/>
-      <c r="D6" s="31"/>
-      <c r="E6" s="31"/>
-      <c r="F6" s="31"/>
-      <c r="G6" s="31"/>
-      <c r="H6" s="31"/>
-      <c r="I6" s="31"/>
-      <c r="J6" s="31"/>
-      <c r="K6" s="31"/>
-      <c r="L6" s="31"/>
-      <c r="M6" s="31"/>
-      <c r="N6" s="31"/>
-      <c r="O6" s="31"/>
+      <c r="A6" s="28"/>
+      <c r="B6" s="29"/>
+      <c r="C6" s="30"/>
+      <c r="D6" s="35"/>
+      <c r="E6" s="35"/>
+      <c r="F6" s="35"/>
+      <c r="G6" s="35"/>
+      <c r="H6" s="35"/>
+      <c r="I6" s="35"/>
+      <c r="J6" s="35"/>
+      <c r="K6" s="35"/>
+      <c r="L6" s="35"/>
+      <c r="M6" s="35"/>
+      <c r="N6" s="35"/>
+      <c r="O6" s="35"/>
     </row>
     <row r="7" spans="1:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="24"/>
-      <c r="B7" s="25"/>
-      <c r="C7" s="26"/>
-      <c r="D7" s="31"/>
-      <c r="E7" s="31"/>
-      <c r="F7" s="31"/>
-      <c r="G7" s="31"/>
-      <c r="H7" s="31"/>
-      <c r="I7" s="31"/>
-      <c r="J7" s="31"/>
-      <c r="K7" s="31"/>
-      <c r="L7" s="31"/>
-      <c r="M7" s="31"/>
-      <c r="N7" s="31"/>
-      <c r="O7" s="31"/>
-      <c r="Q7" s="32" t="s">
+      <c r="A7" s="28"/>
+      <c r="B7" s="29"/>
+      <c r="C7" s="30"/>
+      <c r="D7" s="35"/>
+      <c r="E7" s="35"/>
+      <c r="F7" s="35"/>
+      <c r="G7" s="35"/>
+      <c r="H7" s="35"/>
+      <c r="I7" s="35"/>
+      <c r="J7" s="35"/>
+      <c r="K7" s="35"/>
+      <c r="L7" s="35"/>
+      <c r="M7" s="35"/>
+      <c r="N7" s="35"/>
+      <c r="O7" s="35"/>
+      <c r="Q7" s="36" t="s">
         <v>97</v>
       </c>
-      <c r="R7" s="32"/>
-      <c r="S7" s="32"/>
-      <c r="T7" s="32"/>
-      <c r="U7" s="32"/>
-      <c r="V7" s="32"/>
+      <c r="R7" s="36"/>
+      <c r="S7" s="36"/>
+      <c r="T7" s="36"/>
+      <c r="U7" s="36"/>
+      <c r="V7" s="36"/>
     </row>
     <row r="8" spans="1:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="24"/>
-      <c r="B8" s="25"/>
-      <c r="C8" s="26"/>
-      <c r="D8" s="31"/>
-      <c r="E8" s="31"/>
-      <c r="F8" s="31"/>
-      <c r="G8" s="31"/>
-      <c r="H8" s="31"/>
-      <c r="I8" s="31"/>
-      <c r="J8" s="31"/>
-      <c r="K8" s="31"/>
-      <c r="L8" s="31"/>
-      <c r="M8" s="31"/>
-      <c r="N8" s="31"/>
-      <c r="O8" s="31"/>
-      <c r="Q8" s="32"/>
-      <c r="R8" s="32"/>
-      <c r="S8" s="32"/>
-      <c r="T8" s="32"/>
-      <c r="U8" s="32"/>
-      <c r="V8" s="32"/>
+      <c r="A8" s="28"/>
+      <c r="B8" s="29"/>
+      <c r="C8" s="30"/>
+      <c r="D8" s="35"/>
+      <c r="E8" s="35"/>
+      <c r="F8" s="35"/>
+      <c r="G8" s="35"/>
+      <c r="H8" s="35"/>
+      <c r="I8" s="35"/>
+      <c r="J8" s="35"/>
+      <c r="K8" s="35"/>
+      <c r="L8" s="35"/>
+      <c r="M8" s="35"/>
+      <c r="N8" s="35"/>
+      <c r="O8" s="35"/>
+      <c r="Q8" s="36"/>
+      <c r="R8" s="36"/>
+      <c r="S8" s="36"/>
+      <c r="T8" s="36"/>
+      <c r="U8" s="36"/>
+      <c r="V8" s="36"/>
     </row>
     <row r="9" spans="1:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="24"/>
-      <c r="B9" s="25"/>
-      <c r="C9" s="26"/>
-      <c r="D9" s="31"/>
-      <c r="E9" s="31"/>
-      <c r="F9" s="31"/>
-      <c r="G9" s="31"/>
-      <c r="H9" s="31"/>
-      <c r="I9" s="31"/>
-      <c r="J9" s="31"/>
-      <c r="K9" s="31"/>
-      <c r="L9" s="31"/>
-      <c r="M9" s="31"/>
-      <c r="N9" s="31"/>
-      <c r="O9" s="31"/>
-      <c r="Q9" s="32"/>
-      <c r="R9" s="32"/>
-      <c r="S9" s="32"/>
-      <c r="T9" s="32"/>
-      <c r="U9" s="32"/>
-      <c r="V9" s="32"/>
+      <c r="A9" s="28"/>
+      <c r="B9" s="29"/>
+      <c r="C9" s="30"/>
+      <c r="D9" s="35"/>
+      <c r="E9" s="35"/>
+      <c r="F9" s="35"/>
+      <c r="G9" s="35"/>
+      <c r="H9" s="35"/>
+      <c r="I9" s="35"/>
+      <c r="J9" s="35"/>
+      <c r="K9" s="35"/>
+      <c r="L9" s="35"/>
+      <c r="M9" s="35"/>
+      <c r="N9" s="35"/>
+      <c r="O9" s="35"/>
+      <c r="Q9" s="36"/>
+      <c r="R9" s="36"/>
+      <c r="S9" s="36"/>
+      <c r="T9" s="36"/>
+      <c r="U9" s="36"/>
+      <c r="V9" s="36"/>
     </row>
     <row r="10" spans="1:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="24"/>
-      <c r="B10" s="25"/>
-      <c r="C10" s="26"/>
-      <c r="D10" s="31"/>
-      <c r="E10" s="31"/>
-      <c r="F10" s="31"/>
-      <c r="G10" s="31"/>
-      <c r="H10" s="31"/>
-      <c r="I10" s="31"/>
-      <c r="J10" s="31"/>
-      <c r="K10" s="31"/>
-      <c r="L10" s="31"/>
-      <c r="M10" s="31"/>
-      <c r="N10" s="31"/>
-      <c r="O10" s="31"/>
-      <c r="Q10" s="32"/>
-      <c r="R10" s="32"/>
-      <c r="S10" s="32"/>
-      <c r="T10" s="32"/>
-      <c r="U10" s="32"/>
-      <c r="V10" s="32"/>
+      <c r="A10" s="28"/>
+      <c r="B10" s="29"/>
+      <c r="C10" s="30"/>
+      <c r="D10" s="35"/>
+      <c r="E10" s="35"/>
+      <c r="F10" s="35"/>
+      <c r="G10" s="35"/>
+      <c r="H10" s="35"/>
+      <c r="I10" s="35"/>
+      <c r="J10" s="35"/>
+      <c r="K10" s="35"/>
+      <c r="L10" s="35"/>
+      <c r="M10" s="35"/>
+      <c r="N10" s="35"/>
+      <c r="O10" s="35"/>
+      <c r="Q10" s="36"/>
+      <c r="R10" s="36"/>
+      <c r="S10" s="36"/>
+      <c r="T10" s="36"/>
+      <c r="U10" s="36"/>
+      <c r="V10" s="36"/>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A11" s="24"/>
-      <c r="B11" s="25"/>
-      <c r="C11" s="26"/>
-      <c r="D11" s="31"/>
-      <c r="E11" s="31"/>
-      <c r="F11" s="31"/>
-      <c r="G11" s="31"/>
-      <c r="H11" s="31"/>
-      <c r="I11" s="31"/>
-      <c r="J11" s="31"/>
-      <c r="K11" s="31"/>
-      <c r="L11" s="31"/>
-      <c r="M11" s="31"/>
-      <c r="N11" s="31"/>
-      <c r="O11" s="31"/>
-      <c r="Q11" s="32"/>
-      <c r="R11" s="32"/>
-      <c r="S11" s="32"/>
-      <c r="T11" s="32"/>
-      <c r="U11" s="32"/>
-      <c r="V11" s="32"/>
+      <c r="A11" s="28"/>
+      <c r="B11" s="29"/>
+      <c r="C11" s="30"/>
+      <c r="D11" s="35"/>
+      <c r="E11" s="35"/>
+      <c r="F11" s="35"/>
+      <c r="G11" s="35"/>
+      <c r="H11" s="35"/>
+      <c r="I11" s="35"/>
+      <c r="J11" s="35"/>
+      <c r="K11" s="35"/>
+      <c r="L11" s="35"/>
+      <c r="M11" s="35"/>
+      <c r="N11" s="35"/>
+      <c r="O11" s="35"/>
+      <c r="Q11" s="36"/>
+      <c r="R11" s="36"/>
+      <c r="S11" s="36"/>
+      <c r="T11" s="36"/>
+      <c r="U11" s="36"/>
+      <c r="V11" s="36"/>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A12" s="24"/>
-      <c r="B12" s="25"/>
-      <c r="C12" s="26"/>
-      <c r="D12" s="31"/>
-      <c r="E12" s="31"/>
-      <c r="F12" s="31"/>
-      <c r="G12" s="31"/>
-      <c r="H12" s="31"/>
-      <c r="I12" s="31"/>
-      <c r="J12" s="31"/>
-      <c r="K12" s="31"/>
-      <c r="L12" s="31"/>
-      <c r="M12" s="31"/>
-      <c r="N12" s="31"/>
-      <c r="O12" s="31"/>
-      <c r="Q12" s="32"/>
-      <c r="R12" s="32"/>
-      <c r="S12" s="32"/>
-      <c r="T12" s="32"/>
-      <c r="U12" s="32"/>
-      <c r="V12" s="32"/>
+      <c r="A12" s="28"/>
+      <c r="B12" s="29"/>
+      <c r="C12" s="30"/>
+      <c r="D12" s="35"/>
+      <c r="E12" s="35"/>
+      <c r="F12" s="35"/>
+      <c r="G12" s="35"/>
+      <c r="H12" s="35"/>
+      <c r="I12" s="35"/>
+      <c r="J12" s="35"/>
+      <c r="K12" s="35"/>
+      <c r="L12" s="35"/>
+      <c r="M12" s="35"/>
+      <c r="N12" s="35"/>
+      <c r="O12" s="35"/>
+      <c r="Q12" s="36"/>
+      <c r="R12" s="36"/>
+      <c r="S12" s="36"/>
+      <c r="T12" s="36"/>
+      <c r="U12" s="36"/>
+      <c r="V12" s="36"/>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A13" s="24"/>
-      <c r="B13" s="25"/>
-      <c r="C13" s="26"/>
-      <c r="D13" s="31"/>
-      <c r="E13" s="31"/>
-      <c r="F13" s="31"/>
-      <c r="G13" s="31"/>
-      <c r="H13" s="31"/>
-      <c r="I13" s="31"/>
-      <c r="J13" s="31"/>
-      <c r="K13" s="31"/>
-      <c r="L13" s="31"/>
-      <c r="M13" s="31"/>
-      <c r="N13" s="31"/>
-      <c r="O13" s="31"/>
-      <c r="Q13" s="32"/>
-      <c r="R13" s="32"/>
-      <c r="S13" s="32"/>
-      <c r="T13" s="32"/>
-      <c r="U13" s="32"/>
-      <c r="V13" s="32"/>
+      <c r="A13" s="28"/>
+      <c r="B13" s="29"/>
+      <c r="C13" s="30"/>
+      <c r="D13" s="35"/>
+      <c r="E13" s="35"/>
+      <c r="F13" s="35"/>
+      <c r="G13" s="35"/>
+      <c r="H13" s="35"/>
+      <c r="I13" s="35"/>
+      <c r="J13" s="35"/>
+      <c r="K13" s="35"/>
+      <c r="L13" s="35"/>
+      <c r="M13" s="35"/>
+      <c r="N13" s="35"/>
+      <c r="O13" s="35"/>
+      <c r="Q13" s="36"/>
+      <c r="R13" s="36"/>
+      <c r="S13" s="36"/>
+      <c r="T13" s="36"/>
+      <c r="U13" s="36"/>
+      <c r="V13" s="36"/>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A14" s="24"/>
-      <c r="B14" s="25"/>
-      <c r="C14" s="26"/>
-      <c r="D14" s="31"/>
-      <c r="E14" s="31"/>
-      <c r="F14" s="31"/>
-      <c r="G14" s="31"/>
-      <c r="H14" s="31"/>
-      <c r="I14" s="31"/>
-      <c r="J14" s="31"/>
-      <c r="K14" s="31"/>
-      <c r="L14" s="31"/>
-      <c r="M14" s="31"/>
-      <c r="N14" s="31"/>
-      <c r="O14" s="31"/>
+      <c r="A14" s="28"/>
+      <c r="B14" s="29"/>
+      <c r="C14" s="30"/>
+      <c r="D14" s="35"/>
+      <c r="E14" s="35"/>
+      <c r="F14" s="35"/>
+      <c r="G14" s="35"/>
+      <c r="H14" s="35"/>
+      <c r="I14" s="35"/>
+      <c r="J14" s="35"/>
+      <c r="K14" s="35"/>
+      <c r="L14" s="35"/>
+      <c r="M14" s="35"/>
+      <c r="N14" s="35"/>
+      <c r="O14" s="35"/>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A15" s="24"/>
-      <c r="B15" s="25"/>
-      <c r="C15" s="26"/>
-      <c r="D15" s="31"/>
-      <c r="E15" s="31"/>
-      <c r="F15" s="31"/>
-      <c r="G15" s="31"/>
-      <c r="H15" s="31"/>
-      <c r="I15" s="31"/>
-      <c r="J15" s="31"/>
-      <c r="K15" s="31"/>
-      <c r="L15" s="31"/>
-      <c r="M15" s="31"/>
-      <c r="N15" s="31"/>
-      <c r="O15" s="31"/>
+      <c r="A15" s="28"/>
+      <c r="B15" s="29"/>
+      <c r="C15" s="30"/>
+      <c r="D15" s="35"/>
+      <c r="E15" s="35"/>
+      <c r="F15" s="35"/>
+      <c r="G15" s="35"/>
+      <c r="H15" s="35"/>
+      <c r="I15" s="35"/>
+      <c r="J15" s="35"/>
+      <c r="K15" s="35"/>
+      <c r="L15" s="35"/>
+      <c r="M15" s="35"/>
+      <c r="N15" s="35"/>
+      <c r="O15" s="35"/>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A16" s="24"/>
-      <c r="B16" s="25"/>
-      <c r="C16" s="26"/>
-      <c r="D16" s="31"/>
-      <c r="E16" s="31"/>
-      <c r="F16" s="31"/>
-      <c r="G16" s="31"/>
-      <c r="H16" s="31"/>
-      <c r="I16" s="31"/>
-      <c r="J16" s="31"/>
-      <c r="K16" s="31"/>
-      <c r="L16" s="31"/>
-      <c r="M16" s="31"/>
-      <c r="N16" s="31"/>
-      <c r="O16" s="31"/>
+      <c r="A16" s="28"/>
+      <c r="B16" s="29"/>
+      <c r="C16" s="30"/>
+      <c r="D16" s="35"/>
+      <c r="E16" s="35"/>
+      <c r="F16" s="35"/>
+      <c r="G16" s="35"/>
+      <c r="H16" s="35"/>
+      <c r="I16" s="35"/>
+      <c r="J16" s="35"/>
+      <c r="K16" s="35"/>
+      <c r="L16" s="35"/>
+      <c r="M16" s="35"/>
+      <c r="N16" s="35"/>
+      <c r="O16" s="35"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A17" s="24"/>
-      <c r="B17" s="25"/>
-      <c r="C17" s="26"/>
-      <c r="D17" s="31"/>
-      <c r="E17" s="31"/>
-      <c r="F17" s="31"/>
-      <c r="G17" s="31"/>
-      <c r="H17" s="31"/>
-      <c r="I17" s="31"/>
-      <c r="J17" s="31"/>
-      <c r="K17" s="31"/>
-      <c r="L17" s="31"/>
-      <c r="M17" s="31"/>
-      <c r="N17" s="31"/>
-      <c r="O17" s="31"/>
+      <c r="A17" s="28"/>
+      <c r="B17" s="29"/>
+      <c r="C17" s="30"/>
+      <c r="D17" s="35"/>
+      <c r="E17" s="35"/>
+      <c r="F17" s="35"/>
+      <c r="G17" s="35"/>
+      <c r="H17" s="35"/>
+      <c r="I17" s="35"/>
+      <c r="J17" s="35"/>
+      <c r="K17" s="35"/>
+      <c r="L17" s="35"/>
+      <c r="M17" s="35"/>
+      <c r="N17" s="35"/>
+      <c r="O17" s="35"/>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A18" s="27"/>
-      <c r="B18" s="28"/>
-      <c r="C18" s="29"/>
-      <c r="D18" s="31"/>
-      <c r="E18" s="31"/>
-      <c r="F18" s="31"/>
-      <c r="G18" s="31"/>
-      <c r="H18" s="31"/>
-      <c r="I18" s="31"/>
-      <c r="J18" s="31"/>
-      <c r="K18" s="31"/>
-      <c r="L18" s="31"/>
-      <c r="M18" s="31"/>
-      <c r="N18" s="31"/>
-      <c r="O18" s="31"/>
+      <c r="A18" s="31"/>
+      <c r="B18" s="32"/>
+      <c r="C18" s="33"/>
+      <c r="D18" s="35"/>
+      <c r="E18" s="35"/>
+      <c r="F18" s="35"/>
+      <c r="G18" s="35"/>
+      <c r="H18" s="35"/>
+      <c r="I18" s="35"/>
+      <c r="J18" s="35"/>
+      <c r="K18" s="35"/>
+      <c r="L18" s="35"/>
+      <c r="M18" s="35"/>
+      <c r="N18" s="35"/>
+      <c r="O18" s="35"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A19" s="12" t="s">
+      <c r="A19" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="B19" s="13"/>
-      <c r="C19" s="13"/>
-      <c r="D19" s="13"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="13"/>
-      <c r="G19" s="13"/>
-      <c r="H19" s="13"/>
-      <c r="I19" s="13"/>
-      <c r="J19" s="13"/>
-      <c r="K19" s="13"/>
-      <c r="L19" s="13"/>
-      <c r="M19" s="13"/>
-      <c r="N19" s="13"/>
-      <c r="O19" s="14"/>
+      <c r="B19" s="17"/>
+      <c r="C19" s="17"/>
+      <c r="D19" s="17"/>
+      <c r="E19" s="17"/>
+      <c r="F19" s="17"/>
+      <c r="G19" s="17"/>
+      <c r="H19" s="17"/>
+      <c r="I19" s="17"/>
+      <c r="J19" s="17"/>
+      <c r="K19" s="17"/>
+      <c r="L19" s="17"/>
+      <c r="M19" s="17"/>
+      <c r="N19" s="17"/>
+      <c r="O19" s="18"/>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A20" s="15"/>
-      <c r="B20" s="16"/>
-      <c r="C20" s="16"/>
-      <c r="D20" s="16"/>
-      <c r="E20" s="16"/>
-      <c r="F20" s="16"/>
-      <c r="G20" s="16"/>
-      <c r="H20" s="16"/>
-      <c r="I20" s="16"/>
-      <c r="J20" s="16"/>
-      <c r="K20" s="16"/>
-      <c r="L20" s="16"/>
-      <c r="M20" s="16"/>
-      <c r="N20" s="16"/>
-      <c r="O20" s="17"/>
+      <c r="A20" s="19"/>
+      <c r="B20" s="20"/>
+      <c r="C20" s="20"/>
+      <c r="D20" s="20"/>
+      <c r="E20" s="20"/>
+      <c r="F20" s="20"/>
+      <c r="G20" s="20"/>
+      <c r="H20" s="20"/>
+      <c r="I20" s="20"/>
+      <c r="J20" s="20"/>
+      <c r="K20" s="20"/>
+      <c r="L20" s="20"/>
+      <c r="M20" s="20"/>
+      <c r="N20" s="20"/>
+      <c r="O20" s="21"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A21" s="15"/>
-      <c r="B21" s="16"/>
-      <c r="C21" s="16"/>
-      <c r="D21" s="16"/>
-      <c r="E21" s="16"/>
-      <c r="F21" s="16"/>
-      <c r="G21" s="16"/>
-      <c r="H21" s="16"/>
-      <c r="I21" s="16"/>
-      <c r="J21" s="16"/>
-      <c r="K21" s="16"/>
-      <c r="L21" s="16"/>
-      <c r="M21" s="16"/>
-      <c r="N21" s="16"/>
-      <c r="O21" s="17"/>
+      <c r="A21" s="19"/>
+      <c r="B21" s="20"/>
+      <c r="C21" s="20"/>
+      <c r="D21" s="20"/>
+      <c r="E21" s="20"/>
+      <c r="F21" s="20"/>
+      <c r="G21" s="20"/>
+      <c r="H21" s="20"/>
+      <c r="I21" s="20"/>
+      <c r="J21" s="20"/>
+      <c r="K21" s="20"/>
+      <c r="L21" s="20"/>
+      <c r="M21" s="20"/>
+      <c r="N21" s="20"/>
+      <c r="O21" s="21"/>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A22" s="15"/>
-      <c r="B22" s="16"/>
-      <c r="C22" s="16"/>
-      <c r="D22" s="16"/>
-      <c r="E22" s="16"/>
-      <c r="F22" s="16"/>
-      <c r="G22" s="16"/>
-      <c r="H22" s="16"/>
-      <c r="I22" s="16"/>
-      <c r="J22" s="16"/>
-      <c r="K22" s="16"/>
-      <c r="L22" s="16"/>
-      <c r="M22" s="16"/>
-      <c r="N22" s="16"/>
-      <c r="O22" s="17"/>
+      <c r="A22" s="19"/>
+      <c r="B22" s="20"/>
+      <c r="C22" s="20"/>
+      <c r="D22" s="20"/>
+      <c r="E22" s="20"/>
+      <c r="F22" s="20"/>
+      <c r="G22" s="20"/>
+      <c r="H22" s="20"/>
+      <c r="I22" s="20"/>
+      <c r="J22" s="20"/>
+      <c r="K22" s="20"/>
+      <c r="L22" s="20"/>
+      <c r="M22" s="20"/>
+      <c r="N22" s="20"/>
+      <c r="O22" s="21"/>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A23" s="15"/>
-      <c r="B23" s="16"/>
-      <c r="C23" s="16"/>
-      <c r="D23" s="16"/>
-      <c r="E23" s="16"/>
-      <c r="F23" s="16"/>
-      <c r="G23" s="16"/>
-      <c r="H23" s="16"/>
-      <c r="I23" s="16"/>
-      <c r="J23" s="16"/>
-      <c r="K23" s="16"/>
-      <c r="L23" s="16"/>
-      <c r="M23" s="16"/>
-      <c r="N23" s="16"/>
-      <c r="O23" s="17"/>
+      <c r="A23" s="19"/>
+      <c r="B23" s="20"/>
+      <c r="C23" s="20"/>
+      <c r="D23" s="20"/>
+      <c r="E23" s="20"/>
+      <c r="F23" s="20"/>
+      <c r="G23" s="20"/>
+      <c r="H23" s="20"/>
+      <c r="I23" s="20"/>
+      <c r="J23" s="20"/>
+      <c r="K23" s="20"/>
+      <c r="L23" s="20"/>
+      <c r="M23" s="20"/>
+      <c r="N23" s="20"/>
+      <c r="O23" s="21"/>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A24" s="15"/>
-      <c r="B24" s="16"/>
-      <c r="C24" s="16"/>
-      <c r="D24" s="16"/>
-      <c r="E24" s="16"/>
-      <c r="F24" s="16"/>
-      <c r="G24" s="16"/>
-      <c r="H24" s="16"/>
-      <c r="I24" s="16"/>
-      <c r="J24" s="16"/>
-      <c r="K24" s="16"/>
-      <c r="L24" s="16"/>
-      <c r="M24" s="16"/>
-      <c r="N24" s="16"/>
-      <c r="O24" s="17"/>
+      <c r="A24" s="19"/>
+      <c r="B24" s="20"/>
+      <c r="C24" s="20"/>
+      <c r="D24" s="20"/>
+      <c r="E24" s="20"/>
+      <c r="F24" s="20"/>
+      <c r="G24" s="20"/>
+      <c r="H24" s="20"/>
+      <c r="I24" s="20"/>
+      <c r="J24" s="20"/>
+      <c r="K24" s="20"/>
+      <c r="L24" s="20"/>
+      <c r="M24" s="20"/>
+      <c r="N24" s="20"/>
+      <c r="O24" s="21"/>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A25" s="15"/>
-      <c r="B25" s="16"/>
-      <c r="C25" s="16"/>
-      <c r="D25" s="16"/>
-      <c r="E25" s="16"/>
-      <c r="F25" s="16"/>
-      <c r="G25" s="16"/>
-      <c r="H25" s="16"/>
-      <c r="I25" s="16"/>
-      <c r="J25" s="16"/>
-      <c r="K25" s="16"/>
-      <c r="L25" s="16"/>
-      <c r="M25" s="16"/>
-      <c r="N25" s="16"/>
-      <c r="O25" s="17"/>
+      <c r="A25" s="19"/>
+      <c r="B25" s="20"/>
+      <c r="C25" s="20"/>
+      <c r="D25" s="20"/>
+      <c r="E25" s="20"/>
+      <c r="F25" s="20"/>
+      <c r="G25" s="20"/>
+      <c r="H25" s="20"/>
+      <c r="I25" s="20"/>
+      <c r="J25" s="20"/>
+      <c r="K25" s="20"/>
+      <c r="L25" s="20"/>
+      <c r="M25" s="20"/>
+      <c r="N25" s="20"/>
+      <c r="O25" s="21"/>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A26" s="15"/>
-      <c r="B26" s="16"/>
-      <c r="C26" s="16"/>
-      <c r="D26" s="16"/>
-      <c r="E26" s="16"/>
-      <c r="F26" s="16"/>
-      <c r="G26" s="16"/>
-      <c r="H26" s="16"/>
-      <c r="I26" s="16"/>
-      <c r="J26" s="16"/>
-      <c r="K26" s="16"/>
-      <c r="L26" s="16"/>
-      <c r="M26" s="16"/>
-      <c r="N26" s="16"/>
-      <c r="O26" s="17"/>
+      <c r="A26" s="19"/>
+      <c r="B26" s="20"/>
+      <c r="C26" s="20"/>
+      <c r="D26" s="20"/>
+      <c r="E26" s="20"/>
+      <c r="F26" s="20"/>
+      <c r="G26" s="20"/>
+      <c r="H26" s="20"/>
+      <c r="I26" s="20"/>
+      <c r="J26" s="20"/>
+      <c r="K26" s="20"/>
+      <c r="L26" s="20"/>
+      <c r="M26" s="20"/>
+      <c r="N26" s="20"/>
+      <c r="O26" s="21"/>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A27" s="15"/>
-      <c r="B27" s="16"/>
-      <c r="C27" s="16"/>
-      <c r="D27" s="16"/>
-      <c r="E27" s="16"/>
-      <c r="F27" s="16"/>
-      <c r="G27" s="16"/>
-      <c r="H27" s="16"/>
-      <c r="I27" s="16"/>
-      <c r="J27" s="16"/>
-      <c r="K27" s="16"/>
-      <c r="L27" s="16"/>
-      <c r="M27" s="16"/>
-      <c r="N27" s="16"/>
-      <c r="O27" s="17"/>
+      <c r="A27" s="19"/>
+      <c r="B27" s="20"/>
+      <c r="C27" s="20"/>
+      <c r="D27" s="20"/>
+      <c r="E27" s="20"/>
+      <c r="F27" s="20"/>
+      <c r="G27" s="20"/>
+      <c r="H27" s="20"/>
+      <c r="I27" s="20"/>
+      <c r="J27" s="20"/>
+      <c r="K27" s="20"/>
+      <c r="L27" s="20"/>
+      <c r="M27" s="20"/>
+      <c r="N27" s="20"/>
+      <c r="O27" s="21"/>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A28" s="15"/>
-      <c r="B28" s="16"/>
-      <c r="C28" s="16"/>
-      <c r="D28" s="16"/>
-      <c r="E28" s="16"/>
-      <c r="F28" s="16"/>
-      <c r="G28" s="16"/>
-      <c r="H28" s="16"/>
-      <c r="I28" s="16"/>
-      <c r="J28" s="16"/>
-      <c r="K28" s="16"/>
-      <c r="L28" s="16"/>
-      <c r="M28" s="16"/>
-      <c r="N28" s="16"/>
-      <c r="O28" s="17"/>
+      <c r="A28" s="19"/>
+      <c r="B28" s="20"/>
+      <c r="C28" s="20"/>
+      <c r="D28" s="20"/>
+      <c r="E28" s="20"/>
+      <c r="F28" s="20"/>
+      <c r="G28" s="20"/>
+      <c r="H28" s="20"/>
+      <c r="I28" s="20"/>
+      <c r="J28" s="20"/>
+      <c r="K28" s="20"/>
+      <c r="L28" s="20"/>
+      <c r="M28" s="20"/>
+      <c r="N28" s="20"/>
+      <c r="O28" s="21"/>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A29" s="15"/>
-      <c r="B29" s="16"/>
-      <c r="C29" s="16"/>
-      <c r="D29" s="16"/>
-      <c r="E29" s="16"/>
-      <c r="F29" s="16"/>
-      <c r="G29" s="16"/>
-      <c r="H29" s="16"/>
-      <c r="I29" s="16"/>
-      <c r="J29" s="16"/>
-      <c r="K29" s="16"/>
-      <c r="L29" s="16"/>
-      <c r="M29" s="16"/>
-      <c r="N29" s="16"/>
-      <c r="O29" s="17"/>
+      <c r="A29" s="19"/>
+      <c r="B29" s="20"/>
+      <c r="C29" s="20"/>
+      <c r="D29" s="20"/>
+      <c r="E29" s="20"/>
+      <c r="F29" s="20"/>
+      <c r="G29" s="20"/>
+      <c r="H29" s="20"/>
+      <c r="I29" s="20"/>
+      <c r="J29" s="20"/>
+      <c r="K29" s="20"/>
+      <c r="L29" s="20"/>
+      <c r="M29" s="20"/>
+      <c r="N29" s="20"/>
+      <c r="O29" s="21"/>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A30" s="15"/>
-      <c r="B30" s="16"/>
-      <c r="C30" s="16"/>
-      <c r="D30" s="16"/>
-      <c r="E30" s="16"/>
-      <c r="F30" s="16"/>
-      <c r="G30" s="16"/>
-      <c r="H30" s="16"/>
-      <c r="I30" s="16"/>
-      <c r="J30" s="16"/>
-      <c r="K30" s="16"/>
-      <c r="L30" s="16"/>
-      <c r="M30" s="16"/>
-      <c r="N30" s="16"/>
-      <c r="O30" s="17"/>
+      <c r="A30" s="19"/>
+      <c r="B30" s="20"/>
+      <c r="C30" s="20"/>
+      <c r="D30" s="20"/>
+      <c r="E30" s="20"/>
+      <c r="F30" s="20"/>
+      <c r="G30" s="20"/>
+      <c r="H30" s="20"/>
+      <c r="I30" s="20"/>
+      <c r="J30" s="20"/>
+      <c r="K30" s="20"/>
+      <c r="L30" s="20"/>
+      <c r="M30" s="20"/>
+      <c r="N30" s="20"/>
+      <c r="O30" s="21"/>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A31" s="15"/>
-      <c r="B31" s="16"/>
-      <c r="C31" s="16"/>
-      <c r="D31" s="16"/>
-      <c r="E31" s="16"/>
-      <c r="F31" s="16"/>
-      <c r="G31" s="16"/>
-      <c r="H31" s="16"/>
-      <c r="I31" s="16"/>
-      <c r="J31" s="16"/>
-      <c r="K31" s="16"/>
-      <c r="L31" s="16"/>
-      <c r="M31" s="16"/>
-      <c r="N31" s="16"/>
-      <c r="O31" s="17"/>
+      <c r="A31" s="19"/>
+      <c r="B31" s="20"/>
+      <c r="C31" s="20"/>
+      <c r="D31" s="20"/>
+      <c r="E31" s="20"/>
+      <c r="F31" s="20"/>
+      <c r="G31" s="20"/>
+      <c r="H31" s="20"/>
+      <c r="I31" s="20"/>
+      <c r="J31" s="20"/>
+      <c r="K31" s="20"/>
+      <c r="L31" s="20"/>
+      <c r="M31" s="20"/>
+      <c r="N31" s="20"/>
+      <c r="O31" s="21"/>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A32" s="15"/>
-      <c r="B32" s="16"/>
-      <c r="C32" s="16"/>
-      <c r="D32" s="16"/>
-      <c r="E32" s="16"/>
-      <c r="F32" s="16"/>
-      <c r="G32" s="16"/>
-      <c r="H32" s="16"/>
-      <c r="I32" s="16"/>
-      <c r="J32" s="16"/>
-      <c r="K32" s="16"/>
-      <c r="L32" s="16"/>
-      <c r="M32" s="16"/>
-      <c r="N32" s="16"/>
-      <c r="O32" s="17"/>
+      <c r="A32" s="19"/>
+      <c r="B32" s="20"/>
+      <c r="C32" s="20"/>
+      <c r="D32" s="20"/>
+      <c r="E32" s="20"/>
+      <c r="F32" s="20"/>
+      <c r="G32" s="20"/>
+      <c r="H32" s="20"/>
+      <c r="I32" s="20"/>
+      <c r="J32" s="20"/>
+      <c r="K32" s="20"/>
+      <c r="L32" s="20"/>
+      <c r="M32" s="20"/>
+      <c r="N32" s="20"/>
+      <c r="O32" s="21"/>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A33" s="15"/>
-      <c r="B33" s="16"/>
-      <c r="C33" s="16"/>
-      <c r="D33" s="16"/>
-      <c r="E33" s="16"/>
-      <c r="F33" s="16"/>
-      <c r="G33" s="16"/>
-      <c r="H33" s="16"/>
-      <c r="I33" s="16"/>
-      <c r="J33" s="16"/>
-      <c r="K33" s="16"/>
-      <c r="L33" s="16"/>
-      <c r="M33" s="16"/>
-      <c r="N33" s="16"/>
-      <c r="O33" s="17"/>
+      <c r="A33" s="19"/>
+      <c r="B33" s="20"/>
+      <c r="C33" s="20"/>
+      <c r="D33" s="20"/>
+      <c r="E33" s="20"/>
+      <c r="F33" s="20"/>
+      <c r="G33" s="20"/>
+      <c r="H33" s="20"/>
+      <c r="I33" s="20"/>
+      <c r="J33" s="20"/>
+      <c r="K33" s="20"/>
+      <c r="L33" s="20"/>
+      <c r="M33" s="20"/>
+      <c r="N33" s="20"/>
+      <c r="O33" s="21"/>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A34" s="15"/>
-      <c r="B34" s="16"/>
-      <c r="C34" s="16"/>
-      <c r="D34" s="16"/>
-      <c r="E34" s="16"/>
-      <c r="F34" s="16"/>
-      <c r="G34" s="16"/>
-      <c r="H34" s="16"/>
-      <c r="I34" s="16"/>
-      <c r="J34" s="16"/>
-      <c r="K34" s="16"/>
-      <c r="L34" s="16"/>
-      <c r="M34" s="16"/>
-      <c r="N34" s="16"/>
-      <c r="O34" s="17"/>
+      <c r="A34" s="19"/>
+      <c r="B34" s="20"/>
+      <c r="C34" s="20"/>
+      <c r="D34" s="20"/>
+      <c r="E34" s="20"/>
+      <c r="F34" s="20"/>
+      <c r="G34" s="20"/>
+      <c r="H34" s="20"/>
+      <c r="I34" s="20"/>
+      <c r="J34" s="20"/>
+      <c r="K34" s="20"/>
+      <c r="L34" s="20"/>
+      <c r="M34" s="20"/>
+      <c r="N34" s="20"/>
+      <c r="O34" s="21"/>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A35" s="15"/>
-      <c r="B35" s="16"/>
-      <c r="C35" s="16"/>
-      <c r="D35" s="16"/>
-      <c r="E35" s="16"/>
-      <c r="F35" s="16"/>
-      <c r="G35" s="16"/>
-      <c r="H35" s="16"/>
-      <c r="I35" s="16"/>
-      <c r="J35" s="16"/>
-      <c r="K35" s="16"/>
-      <c r="L35" s="16"/>
-      <c r="M35" s="16"/>
-      <c r="N35" s="16"/>
-      <c r="O35" s="17"/>
+      <c r="A35" s="19"/>
+      <c r="B35" s="20"/>
+      <c r="C35" s="20"/>
+      <c r="D35" s="20"/>
+      <c r="E35" s="20"/>
+      <c r="F35" s="20"/>
+      <c r="G35" s="20"/>
+      <c r="H35" s="20"/>
+      <c r="I35" s="20"/>
+      <c r="J35" s="20"/>
+      <c r="K35" s="20"/>
+      <c r="L35" s="20"/>
+      <c r="M35" s="20"/>
+      <c r="N35" s="20"/>
+      <c r="O35" s="21"/>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A36" s="15"/>
-      <c r="B36" s="16"/>
-      <c r="C36" s="16"/>
-      <c r="D36" s="16"/>
-      <c r="E36" s="16"/>
-      <c r="F36" s="16"/>
-      <c r="G36" s="16"/>
-      <c r="H36" s="16"/>
-      <c r="I36" s="16"/>
-      <c r="J36" s="16"/>
-      <c r="K36" s="16"/>
-      <c r="L36" s="16"/>
-      <c r="M36" s="16"/>
-      <c r="N36" s="16"/>
-      <c r="O36" s="17"/>
+      <c r="A36" s="19"/>
+      <c r="B36" s="20"/>
+      <c r="C36" s="20"/>
+      <c r="D36" s="20"/>
+      <c r="E36" s="20"/>
+      <c r="F36" s="20"/>
+      <c r="G36" s="20"/>
+      <c r="H36" s="20"/>
+      <c r="I36" s="20"/>
+      <c r="J36" s="20"/>
+      <c r="K36" s="20"/>
+      <c r="L36" s="20"/>
+      <c r="M36" s="20"/>
+      <c r="N36" s="20"/>
+      <c r="O36" s="21"/>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A37" s="15"/>
-      <c r="B37" s="16"/>
-      <c r="C37" s="16"/>
-      <c r="D37" s="16"/>
-      <c r="E37" s="16"/>
-      <c r="F37" s="16"/>
-      <c r="G37" s="16"/>
-      <c r="H37" s="16"/>
-      <c r="I37" s="16"/>
-      <c r="J37" s="16"/>
-      <c r="K37" s="16"/>
-      <c r="L37" s="16"/>
-      <c r="M37" s="16"/>
-      <c r="N37" s="16"/>
-      <c r="O37" s="17"/>
+      <c r="A37" s="19"/>
+      <c r="B37" s="20"/>
+      <c r="C37" s="20"/>
+      <c r="D37" s="20"/>
+      <c r="E37" s="20"/>
+      <c r="F37" s="20"/>
+      <c r="G37" s="20"/>
+      <c r="H37" s="20"/>
+      <c r="I37" s="20"/>
+      <c r="J37" s="20"/>
+      <c r="K37" s="20"/>
+      <c r="L37" s="20"/>
+      <c r="M37" s="20"/>
+      <c r="N37" s="20"/>
+      <c r="O37" s="21"/>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A38" s="15"/>
-      <c r="B38" s="16"/>
-      <c r="C38" s="16"/>
-      <c r="D38" s="16"/>
-      <c r="E38" s="16"/>
-      <c r="F38" s="16"/>
-      <c r="G38" s="16"/>
-      <c r="H38" s="16"/>
-      <c r="I38" s="16"/>
-      <c r="J38" s="16"/>
-      <c r="K38" s="16"/>
-      <c r="L38" s="16"/>
-      <c r="M38" s="16"/>
-      <c r="N38" s="16"/>
-      <c r="O38" s="17"/>
+      <c r="A38" s="19"/>
+      <c r="B38" s="20"/>
+      <c r="C38" s="20"/>
+      <c r="D38" s="20"/>
+      <c r="E38" s="20"/>
+      <c r="F38" s="20"/>
+      <c r="G38" s="20"/>
+      <c r="H38" s="20"/>
+      <c r="I38" s="20"/>
+      <c r="J38" s="20"/>
+      <c r="K38" s="20"/>
+      <c r="L38" s="20"/>
+      <c r="M38" s="20"/>
+      <c r="N38" s="20"/>
+      <c r="O38" s="21"/>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A39" s="15"/>
-      <c r="B39" s="16"/>
-      <c r="C39" s="16"/>
-      <c r="D39" s="16"/>
-      <c r="E39" s="16"/>
-      <c r="F39" s="16"/>
-      <c r="G39" s="16"/>
-      <c r="H39" s="16"/>
-      <c r="I39" s="16"/>
-      <c r="J39" s="16"/>
-      <c r="K39" s="16"/>
-      <c r="L39" s="16"/>
-      <c r="M39" s="16"/>
-      <c r="N39" s="16"/>
-      <c r="O39" s="17"/>
+      <c r="A39" s="19"/>
+      <c r="B39" s="20"/>
+      <c r="C39" s="20"/>
+      <c r="D39" s="20"/>
+      <c r="E39" s="20"/>
+      <c r="F39" s="20"/>
+      <c r="G39" s="20"/>
+      <c r="H39" s="20"/>
+      <c r="I39" s="20"/>
+      <c r="J39" s="20"/>
+      <c r="K39" s="20"/>
+      <c r="L39" s="20"/>
+      <c r="M39" s="20"/>
+      <c r="N39" s="20"/>
+      <c r="O39" s="21"/>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A40" s="15"/>
-      <c r="B40" s="16"/>
-      <c r="C40" s="16"/>
-      <c r="D40" s="16"/>
-      <c r="E40" s="16"/>
-      <c r="F40" s="16"/>
-      <c r="G40" s="16"/>
-      <c r="H40" s="16"/>
-      <c r="I40" s="16"/>
-      <c r="J40" s="16"/>
-      <c r="K40" s="16"/>
-      <c r="L40" s="16"/>
-      <c r="M40" s="16"/>
-      <c r="N40" s="16"/>
-      <c r="O40" s="17"/>
+      <c r="A40" s="19"/>
+      <c r="B40" s="20"/>
+      <c r="C40" s="20"/>
+      <c r="D40" s="20"/>
+      <c r="E40" s="20"/>
+      <c r="F40" s="20"/>
+      <c r="G40" s="20"/>
+      <c r="H40" s="20"/>
+      <c r="I40" s="20"/>
+      <c r="J40" s="20"/>
+      <c r="K40" s="20"/>
+      <c r="L40" s="20"/>
+      <c r="M40" s="20"/>
+      <c r="N40" s="20"/>
+      <c r="O40" s="21"/>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A41" s="18"/>
-      <c r="B41" s="19"/>
-      <c r="C41" s="19"/>
-      <c r="D41" s="19"/>
-      <c r="E41" s="19"/>
-      <c r="F41" s="19"/>
-      <c r="G41" s="19"/>
-      <c r="H41" s="19"/>
-      <c r="I41" s="19"/>
-      <c r="J41" s="19"/>
-      <c r="K41" s="19"/>
-      <c r="L41" s="19"/>
-      <c r="M41" s="19"/>
-      <c r="N41" s="19"/>
-      <c r="O41" s="20"/>
+      <c r="A41" s="22"/>
+      <c r="B41" s="23"/>
+      <c r="C41" s="23"/>
+      <c r="D41" s="23"/>
+      <c r="E41" s="23"/>
+      <c r="F41" s="23"/>
+      <c r="G41" s="23"/>
+      <c r="H41" s="23"/>
+      <c r="I41" s="23"/>
+      <c r="J41" s="23"/>
+      <c r="K41" s="23"/>
+      <c r="L41" s="23"/>
+      <c r="M41" s="23"/>
+      <c r="N41" s="23"/>
+      <c r="O41" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="Q7:V13"/>
     <mergeCell ref="A19:O41"/>
     <mergeCell ref="A1:C3"/>
     <mergeCell ref="D1:F3"/>
@@ -5813,7 +3782,6 @@
     <mergeCell ref="G4:I18"/>
     <mergeCell ref="J4:L18"/>
     <mergeCell ref="M4:O18"/>
-    <mergeCell ref="Q7:V13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
